--- a/wcsa5seleniumproject/Data/ActiTime.xlsx
+++ b/wcsa5seleniumproject/Data/ActiTime.xlsx
@@ -48,22 +48,22 @@
     <t>MANAGER123</t>
   </si>
   <si>
-    <t>RETYPE PASSWORD</t>
-  </si>
-  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
     <t>LAST NAME</t>
   </si>
   <si>
-    <t>TestEng1</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
     <t>Sharma</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
     <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,25 +469,19 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
